--- a/数据整理/stocks/其他/BP--BP公司.xlsx
+++ b/数据整理/stocks/其他/BP--BP公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/BP--BP公司.xlsx
+++ b/数据整理/stocks/其他/BP--BP公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/BP--BP公司.xlsx
+++ b/数据整理/stocks/其他/BP--BP公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/BP--BP公司.xlsx
+++ b/数据整理/stocks/其他/BP--BP公司.xlsx
@@ -1112,12 +1112,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/其他/BP--BP公司.xlsx
+++ b/数据整理/stocks/其他/BP--BP公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.18</v>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +1186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.21</v>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1159,14 +1224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.26</v>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1175,13 +1262,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.42</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/BP--BP公司.xlsx
+++ b/数据整理/stocks/其他/BP--BP公司.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,95 +455,571 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4246</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>5</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.42</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -610,22 +1086,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2560</t>
+          <t>0.1951</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -648,22 +1124,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.49</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0088</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -686,22 +1162,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.49</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -713,7 +1189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -780,22 +1256,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1951</t>
+          <t>0.2560</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -818,22 +1294,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>87.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0088</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -856,479 +1332,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>87.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.06</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1606</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006282</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根欧洲动力策略股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010343</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010344</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0964</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>014982</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0964</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006282</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根欧洲动力策略股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.92</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010343</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010344</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1343,112 +1365,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4246</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.42</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/BP--BP公司.xlsx
+++ b/数据整理/stocks/其他/BP--BP公司.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -627,27 +644,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
+          <t>华安标普全球石油指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0964</t>
+          <t>0.0677</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -660,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014982</t>
+          <t>006282</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数（QDII-LOF）C</t>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>91.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0964</t>
+          <t>0.0128</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -698,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006282</t>
+          <t>010343</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根欧洲动力策略股票（QDII）</t>
+          <t>华宝英国富时100指数（QDII）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0119</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -736,32 +753,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010343</t>
+          <t>014982</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝英国富时100指数（QDII）A</t>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -784,26 +801,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -812,6 +829,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1012,176 +1275,6 @@
       </c>
       <c r="H5" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1951</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010343</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010344</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1256,22 +1349,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2560</t>
+          <t>0.1951</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1294,22 +1387,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.49</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0088</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1332,22 +1425,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.49</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1360,6 +1453,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/BP--BP公司.xlsx
+++ b/数据整理/stocks/其他/BP--BP公司.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -649,22 +666,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0677</t>
+          <t>0.0792</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -687,22 +704,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.47</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0128</t>
+          <t>0.0133</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -715,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010343</t>
+          <t>014982</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝英国富时100指数（QDII）A</t>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0102</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014982</t>
+          <t>010343</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数（QDII-LOF）C</t>
+          <t>华宝英国富时100指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>94.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -796,7 +813,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝英国富时100指数（QDII）C</t>
+          <t>华宝英国富时100指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -806,12 +823,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>94.75</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -820,7 +837,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -890,27 +907,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
+          <t>华安标普全球石油指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0964</t>
+          <t>0.0677</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -923,36 +940,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014982</t>
+          <t>006282</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数（QDII-LOF）C</t>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>91.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0964</t>
+          <t>0.0128</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -961,36 +978,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006282</t>
+          <t>010343</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根欧洲动力策略股票（QDII）</t>
+          <t>华宝英国富时100指数（QDII）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0119</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -999,32 +1016,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010343</t>
+          <t>014982</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝英国富时100指数（QDII）A</t>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1047,26 +1064,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1075,6 +1092,252 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1275,176 +1538,6 @@
       </c>
       <c r="H5" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1951</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010343</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010344</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1519,22 +1612,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2560</t>
+          <t>0.1951</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1557,22 +1650,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.49</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0088</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1595,22 +1688,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.49</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1623,6 +1716,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
